--- a/datacollectedfromDavid/David Cluster and PValue Analysis of Sulfide Score/AllClusterScores(AcutalValue).xlsx
+++ b/datacollectedfromDavid/David Cluster and PValue Analysis of Sulfide Score/AllClusterScores(AcutalValue).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Term</t>
   </si>
@@ -37,6 +37,9 @@
     <t>GO:0043235~receptor complex</t>
   </si>
   <si>
+    <t>GO:0008305~integrin complex</t>
+  </si>
+  <si>
     <t>GO:0009986~cell surface</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>GO:0005886~plasma membrane</t>
   </si>
   <si>
+    <t>GO:0001527~microfibril</t>
+  </si>
+  <si>
     <t>GO:0030666~endocytic vesicle membrane</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>GO:0005925~focal adhesion</t>
   </si>
   <si>
+    <t>GO:0055037~recycling endosome</t>
+  </si>
+  <si>
     <t>GO:0016021~integral component of membrane</t>
   </si>
   <si>
@@ -82,9 +91,27 @@
     <t>GO:0005605~basal lamina</t>
   </si>
   <si>
+    <t>GO:0005577~fibrinogen complex</t>
+  </si>
+  <si>
+    <t>GO:0005608~laminin-3 complex</t>
+  </si>
+  <si>
     <t>GO:0043202~lysosomal lumen</t>
   </si>
   <si>
+    <t>GO:0005606~laminin-1 complex</t>
+  </si>
+  <si>
+    <t>GO:0043259~laminin-10 complex</t>
+  </si>
+  <si>
+    <t>GO:0005610~laminin-5 complex</t>
+  </si>
+  <si>
+    <t>GO:0043260~laminin-11 complex</t>
+  </si>
+  <si>
     <t>GO:0005796~Golgi lumen</t>
   </si>
   <si>
@@ -103,6 +130,15 @@
     <t>GO:0031093~platelet alpha granule lumen</t>
   </si>
   <si>
+    <t>GO:0043083~synaptic cleft</t>
+  </si>
+  <si>
+    <t>GO:0031091~platelet alpha granule</t>
+  </si>
+  <si>
+    <t>GO:0014069~postsynaptic density</t>
+  </si>
+  <si>
     <t>GO:0005788~endoplasmic reticulum lumen</t>
   </si>
   <si>
@@ -112,12 +148,42 @@
     <t>GO:0045211~postsynaptic membrane</t>
   </si>
   <si>
+    <t>GO:1902711~GABA-A receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0071556~integral component of lumenal side of endoplasmic reticulum membrane</t>
+  </si>
+  <si>
+    <t>GO:0005892~acetylcholine-gated channel complex</t>
+  </si>
+  <si>
+    <t>GO:0042613~MHC class II protein complex</t>
+  </si>
+  <si>
+    <t>GO:0030054~cell junction</t>
+  </si>
+  <si>
     <t>GO:0045202~synapse</t>
   </si>
   <si>
+    <t>GO:0042612~MHC class I protein complex</t>
+  </si>
+  <si>
+    <t>GO:0034707~chloride channel complex</t>
+  </si>
+  <si>
+    <t>GO:0012507~ER to Golgi transport vesicle membrane</t>
+  </si>
+  <si>
+    <t>GO:0001518~voltage-gated sodium channel complex</t>
+  </si>
+  <si>
     <t>GO:0030425~dendrite</t>
   </si>
   <si>
+    <t>GO:0030658~transport vesicle membrane</t>
+  </si>
+  <si>
     <t>GO:0030669~clathrin-coated endocytic vesicle membrane</t>
   </si>
   <si>
@@ -130,28 +196,118 @@
     <t>GO:0030424~axon</t>
   </si>
   <si>
+    <t>GO:0033268~node of Ranvier</t>
+  </si>
+  <si>
     <t>GO:0043005~neuron projection</t>
   </si>
   <si>
+    <t>GO:0031513~nonmotile primary cilium</t>
+  </si>
+  <si>
+    <t>GO:0060077~inhibitory synapse</t>
+  </si>
+  <si>
     <t>GO:0072562~blood microparticle</t>
   </si>
   <si>
+    <t>GO:0043679~axon terminus</t>
+  </si>
+  <si>
+    <t>GO:0043204~perikaryon</t>
+  </si>
+  <si>
     <t>GO:0031226~intrinsic component of plasma membrane</t>
   </si>
   <si>
     <t>GO:0030173~integral component of Golgi membrane</t>
   </si>
   <si>
+    <t>GO:0030670~phagocytic vesicle membrane</t>
+  </si>
+  <si>
+    <t>GO:0042101~T cell receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0042571~immunoglobulin complex, circulating</t>
+  </si>
+  <si>
     <t>GO:1903561~extracellular vesicle</t>
   </si>
   <si>
+    <t>GO:0005765~lysosomal membrane</t>
+  </si>
+  <si>
+    <t>GO:0099055~integral component of postsynaptic membrane</t>
+  </si>
+  <si>
+    <t>GO:0032002~interleukin-28 receptor complex</t>
+  </si>
+  <si>
+    <t>GO:1990712~HFE-transferrin receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0032279~asymmetric synapse</t>
+  </si>
+  <si>
+    <t>GO:0032588~trans-Golgi network membrane</t>
+  </si>
+  <si>
+    <t>GO:0032580~Golgi cisterna membrane</t>
+  </si>
+  <si>
+    <t>GO:0032590~dendrite membrane</t>
+  </si>
+  <si>
+    <t>GO:0044291~cell-cell contact zone</t>
+  </si>
+  <si>
+    <t>GO:0001750~photoreceptor outer segment</t>
+  </si>
+  <si>
+    <t>GO:0043194~axon initial segment</t>
+  </si>
+  <si>
+    <t>GO:0005890~sodium:potassium-exchanging ATPase complex</t>
+  </si>
+  <si>
     <t>GO:0005911~cell-cell junction</t>
   </si>
   <si>
     <t>GO:0005794~Golgi apparatus</t>
   </si>
   <si>
+    <t>GO:0031258~lamellipodium membrane</t>
+  </si>
+  <si>
+    <t>GO:0032281~AMPA glutamate receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0060170~ciliary membrane</t>
+  </si>
+  <si>
+    <t>GO:0005891~voltage-gated calcium channel complex</t>
+  </si>
+  <si>
+    <t>GO:0071438~invadopodium membrane</t>
+  </si>
+  <si>
+    <t>GO:0045178~basal part of cell</t>
+  </si>
+  <si>
     <t>GO:0005764~lysosome</t>
+  </si>
+  <si>
+    <t>GO:0009925~basal plasma membrane</t>
+  </si>
+  <si>
+    <t>GO:0005771~multivesicular body</t>
+  </si>
+  <si>
+    <t>GO:0098794~postsynapse</t>
+  </si>
+  <si>
+    <t>GO:0060076~excitatory synapse</t>
   </si>
   <si>
     <t>GO:0005581~collagen trimer</t>
@@ -611,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,16 +838,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>1.59935019150187e-09</v>
+        <v>8.85883098656681e-11</v>
       </c>
       <c r="D4">
-        <v>1.27249400154014e-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5.80277918893638e-35</v>
+        <v>2.9830519836038e-08</v>
       </c>
       <c r="F4">
-        <v>2.87553155305795e-72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -702,16 +858,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1.10724340685158e-08</v>
+        <v>1.59935019150187e-09</v>
       </c>
       <c r="D5">
-        <v>1.05270896442339e-07</v>
+        <v>1.27249400154014e-05</v>
       </c>
       <c r="E5">
-        <v>0.0200884029312317</v>
+        <v>5.80277918893638e-35</v>
       </c>
       <c r="F5">
-        <v>2.74208744568143e-21</v>
+        <v>2.87553155305795e-72</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -722,16 +878,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>9.73743160973745e-08</v>
+        <v>1.10724340685158e-08</v>
       </c>
       <c r="D6">
-        <v>6.980132131257e-14</v>
+        <v>1.05270896442339e-07</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0200884029312317</v>
       </c>
       <c r="F6">
-        <v>5.51692927990767e-31</v>
+        <v>2.74208744568143e-21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -742,16 +898,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>8.83262206505396e-05</v>
+        <v>9.73743160973745e-08</v>
       </c>
       <c r="D7">
-        <v>7.43047991653052e-16</v>
+        <v>6.980132131257e-14</v>
       </c>
       <c r="E7">
-        <v>0.0322174581853025</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.03452459646655e-82</v>
+        <v>5.51692927990767e-31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -762,16 +918,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.000216286439987235</v>
+        <v>8.83262206505396e-05</v>
       </c>
       <c r="D8">
-        <v>0.00646679374557856</v>
+        <v>7.43047991653052e-16</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0322174581853025</v>
       </c>
       <c r="F8">
-        <v>2.22222198842344e-52</v>
+        <v>1.03452459646655e-82</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -782,16 +938,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.000787397873358535</v>
+        <v>0.000216286439987235</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.00646679374557856</v>
       </c>
       <c r="E9">
-        <v>9.583917717861761e-06</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.05358074573447e-06</v>
+        <v>2.22222198842344e-52</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -802,16 +958,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.000880820623320886</v>
+        <v>0.000327349814950786</v>
       </c>
       <c r="D10">
-        <v>3.29873386784482e-20</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2.38593386103486e-17</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>6.88795464326523e-162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -822,16 +978,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.00998532191342888</v>
+        <v>0.000787397873358535</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>9.583917717861761e-06</v>
       </c>
       <c r="F11">
-        <v>0.0150479701491268</v>
+        <v>1.05358074573447e-06</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -842,16 +998,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.0137926822658502</v>
+        <v>0.000880820623320886</v>
       </c>
       <c r="D12">
-        <v>0.00262540345487688</v>
+        <v>3.29873386784482e-20</v>
       </c>
       <c r="E12">
-        <v>1.12741574515794e-142</v>
+        <v>2.38593386103486e-17</v>
       </c>
       <c r="F12">
-        <v>8.155846621183349e-68</v>
+        <v>6.88795464326523e-162</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -862,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.0217435960983615</v>
+        <v>0.00998532191342888</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -871,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.00925625458958412</v>
+        <v>0.0150479701491268</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -882,16 +1038,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.0221346753668414</v>
+        <v>0.0137926822658502</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.00262540345487688</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1.12741574515794e-142</v>
       </c>
       <c r="F14">
-        <v>0.0400726385325024</v>
+        <v>8.155846621183349e-68</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -902,16 +1058,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.0500612029729296</v>
+        <v>0.0217435960983615</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.16453407980329e-278</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>5.6175832199243e-37</v>
+        <v>0.00925625458958412</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -922,16 +1078,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.07280573065807069</v>
+        <v>0.0221346753668414</v>
       </c>
       <c r="D16">
-        <v>0.00585625549196685</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0135983941347462</v>
+        <v>0.0400726385325024</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -942,16 +1098,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0366486483608615</v>
       </c>
       <c r="D17">
-        <v>2.31286600479862e-14</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.04374228337076e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -962,16 +1118,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.0500612029729296</v>
       </c>
       <c r="D18">
-        <v>7.81519225154163e-05</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>6.16453407980329e-278</v>
       </c>
       <c r="F18">
-        <v>0.00985940983601678</v>
+        <v>5.6175832199243e-37</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -982,16 +1138,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.07280573065807069</v>
       </c>
       <c r="D19">
-        <v>0.0127156943412408</v>
+        <v>0.00585625549196685</v>
       </c>
       <c r="E19">
-        <v>8.53523259769095e-10</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>3.13389448671949e-15</v>
+        <v>0.0135983941347462</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1005,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0175879503487652</v>
+        <v>2.31286600479862e-14</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.16461667885546e-22</v>
+        <v>3.04374228337076e-17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1025,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0197135260658856</v>
+        <v>7.81519225154163e-05</v>
       </c>
       <c r="E21">
-        <v>0.0742897395154906</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.0022867877980498</v>
+        <v>0.00985940983601678</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1045,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0256591647129146</v>
+        <v>0.00113124877246359</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.0285416371991749</v>
       </c>
       <c r="F22">
-        <v>5.77099206078718e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1065,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0268988792768371</v>
+        <v>0.0113812648939769</v>
       </c>
       <c r="E23">
-        <v>7.57702694416265e-17</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>3.00822982687497e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1085,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0392762362483742</v>
+        <v>0.0127156943412408</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>8.53523259769095e-10</v>
       </c>
       <c r="F24">
-        <v>0.060285851673052</v>
+        <v>3.13389448671949e-15</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1105,13 +1261,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.039377731724013</v>
+        <v>0.0170236942898087</v>
       </c>
       <c r="E25">
-        <v>0.06486886972105869</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>5.72721639566411e-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1125,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.0972280328098719</v>
+        <v>0.0170236942898087</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.07401186635713e-28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1145,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.0170236942898087</v>
       </c>
       <c r="E27">
-        <v>2.13323186668001e-29</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.22423897255841e-27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1165,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.0170236942898087</v>
       </c>
       <c r="E28">
-        <v>1.95979305978892e-23</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.00711266374805101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1185,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.0175879503487652</v>
       </c>
       <c r="E29">
-        <v>3.62930172342973e-11</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.0710399303160443</v>
+        <v>3.16461667885546e-22</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1205,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.0197135260658856</v>
       </c>
       <c r="E30">
-        <v>9.334735069127271e-09</v>
+        <v>0.0742897395154906</v>
       </c>
       <c r="F30">
-        <v>0.00155106549403591</v>
+        <v>0.0022867877980498</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1225,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.0256591647129146</v>
       </c>
       <c r="E31">
-        <v>9.215678914810561e-06</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.000542188903973948</v>
+        <v>5.77099206078718e-07</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1245,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.0268988792768371</v>
       </c>
       <c r="E32">
-        <v>1.19959180004354e-05</v>
+        <v>7.57702694416265e-17</v>
       </c>
       <c r="F32">
-        <v>1.55463739420507e-06</v>
+        <v>3.00822982687497e-13</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1265,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.0392762362483742</v>
       </c>
       <c r="E33">
-        <v>1.42493890911367e-05</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>5.8128882857074e-05</v>
+        <v>0.060285851673052</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1285,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.039377731724013</v>
       </c>
       <c r="E34">
-        <v>0.000299446560209065</v>
+        <v>0.06486886972105869</v>
       </c>
       <c r="F34">
-        <v>0.00321979376525492</v>
+        <v>5.72721639566411e-18</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1305,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.044760963230431</v>
       </c>
       <c r="E35">
-        <v>0.000968785749479611</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.0425916382559062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1325,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.0770241036088994</v>
       </c>
       <c r="E36">
-        <v>0.00182550643345412</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>2.4667367630962e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1345,13 +1501,13 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.0882697178723111</v>
       </c>
       <c r="E37">
-        <v>0.00502471893064697</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.00519676162740021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1365,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.0972280328098719</v>
       </c>
       <c r="E38">
-        <v>0.00505180813510163</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.0202961567961935</v>
+        <v>1.07401186635713e-28</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1388,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.0150140744999613</v>
+        <v>2.13323186668001e-29</v>
       </c>
       <c r="F39">
-        <v>0.0269701921244587</v>
+        <v>1.22423897255841e-27</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1408,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.0509867936313377</v>
+        <v>1.95979305978892e-23</v>
       </c>
       <c r="F40">
-        <v>0.0264847418763352</v>
+        <v>0.00711266374805101</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1428,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0.05537131254536</v>
+        <v>2.6153025931424e-18</v>
       </c>
       <c r="F41">
-        <v>0.00664453739430695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1448,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.0823446807238032</v>
+        <v>1.29775085028426e-17</v>
       </c>
       <c r="F42">
-        <v>1.1470297151706e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1468,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>2.70792456115422e-17</v>
       </c>
       <c r="F43">
-        <v>6.40828241278589e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1488,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>2.87727511372191e-15</v>
       </c>
       <c r="F44">
-        <v>2.07008631619323e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1508,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2.52263663152132e-14</v>
       </c>
       <c r="F45">
-        <v>2.19377330217006e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1528,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3.62930172342973e-11</v>
       </c>
       <c r="F46">
-        <v>4.11501411335974e-06</v>
+        <v>0.0710399303160443</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1548,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>9.09610630385152e-11</v>
       </c>
       <c r="F47">
-        <v>2.62489196610978e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1568,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>2.26824906945286e-10</v>
       </c>
       <c r="F48">
-        <v>5.61862802390525e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1588,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>8.03267422929833e-10</v>
       </c>
       <c r="F49">
-        <v>9.677945058515581e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1608,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>6.63572647482932e-09</v>
       </c>
       <c r="F50">
-        <v>0.00013378406279083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1628,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>9.334735069127271e-09</v>
       </c>
       <c r="F51">
-        <v>0.000531725565688679</v>
+        <v>0.00155106549403591</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1648,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>7.035955569031e-08</v>
       </c>
       <c r="F52">
-        <v>0.000705670994374708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1668,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>9.215678914810561e-06</v>
       </c>
       <c r="F53">
-        <v>0.000791375512779001</v>
+        <v>0.000542188903973948</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1688,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1.19959180004354e-05</v>
       </c>
       <c r="F54">
-        <v>0.000791375512779001</v>
+        <v>1.55463739420507e-06</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1708,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1.42493890911367e-05</v>
       </c>
       <c r="F55">
-        <v>0.00139480142765558</v>
+        <v>5.8128882857074e-05</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1728,10 +1884,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.000299446560209065</v>
       </c>
       <c r="F56">
-        <v>0.00284302490362479</v>
+        <v>0.00321979376525492</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1748,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.000634036883305943</v>
       </c>
       <c r="F57">
-        <v>0.002881962662181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1768,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.000968785749479611</v>
       </c>
       <c r="F58">
-        <v>0.002881962662181</v>
+        <v>0.0425916382559062</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1788,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.00147187003075778</v>
       </c>
       <c r="F59">
-        <v>0.00413135782499504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1808,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.00148801027439304</v>
       </c>
       <c r="F60">
-        <v>0.00465414698884455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1828,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.00182550643345412</v>
       </c>
       <c r="F61">
-        <v>0.00985940983601678</v>
+        <v>2.4667367630962e-12</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1848,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.0036595153905239</v>
       </c>
       <c r="F62">
-        <v>0.0100934384888849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1868,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.00371960924649266</v>
       </c>
       <c r="F63">
-        <v>0.0100934384888849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1888,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.00502471893064697</v>
       </c>
       <c r="F64">
-        <v>0.0100934384888849</v>
+        <v>0.00519676162740021</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1908,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.00505180813510163</v>
       </c>
       <c r="F65">
-        <v>0.0100934384888849</v>
+        <v>0.0202961567961935</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1928,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.00577793005547618</v>
       </c>
       <c r="F66">
-        <v>0.0193955014645375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1948,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.0108166687775591</v>
       </c>
       <c r="F67">
-        <v>0.0193955014645375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1968,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.0137461476128835</v>
       </c>
       <c r="F68">
-        <v>0.0193955014645375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1988,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>0.0150140744999613</v>
       </c>
       <c r="F69">
-        <v>0.0263098479760529</v>
+        <v>0.0269701921244587</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2008,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.0161323932708321</v>
       </c>
       <c r="F70">
-        <v>0.0342531178262035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2028,10 +2184,10 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.0176145352050568</v>
       </c>
       <c r="F71">
-        <v>0.0425929499707396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2048,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.0176145352050568</v>
       </c>
       <c r="F72">
-        <v>0.0447898328385961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2068,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.0201927061397435</v>
       </c>
       <c r="F73">
-        <v>0.0447898328385961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2088,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.0201927061397435</v>
       </c>
       <c r="F74">
-        <v>0.046149017712212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2108,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.0287844374010284</v>
       </c>
       <c r="F75">
-        <v>0.046149017712212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2128,9 +2284,1049 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.0351118588397898</v>
       </c>
       <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0.0384320806304651</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0.0398048388002832</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0.0491949361619349</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0.0498231411965753</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0.0498231411965753</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0.0509867936313377</v>
+      </c>
+      <c r="F82">
+        <v>0.0264847418763352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0.05537131254536</v>
+      </c>
+      <c r="F83">
+        <v>0.00664453739430695</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0.0572447798869082</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0.06480474327703881</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0.0732858528654578</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0.07345282447780919</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0.0751063049828648</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0.0768338364746934</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0.0823446807238032</v>
+      </c>
+      <c r="F90">
+        <v>1.1470297151706e-13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0.0826961712410804</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0.0898015498510778</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0.0898015498510778</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0.0898015498510778</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>6.40828241278589e-19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>2.07008631619323e-08</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>2.19377330217006e-08</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>4.11501411335974e-06</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>2.62489196610978e-05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>5.61862802390525e-05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>9.677945058515581e-05</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0.00013378406279083</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0.000531725565688679</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0.000705670994374708</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0.000791375512779001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0.000791375512779001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0.00139480142765558</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0.00284302490362479</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0.002881962662181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0.002881962662181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0.00413135782499504</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0.00465414698884455</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0.00985940983601678</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0.0100934384888849</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0.0100934384888849</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0.0100934384888849</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0.0100934384888849</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0.0193955014645375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0.0193955014645375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0.0193955014645375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0.0263098479760529</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0.0342531178262035</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0.0425929499707396</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0.0447898328385961</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0.0447898328385961</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0.046149017712212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0.046149017712212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
         <v>0.06466655425378651</v>
       </c>
     </row>
